--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,9 @@
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -64,85 +58,91 @@
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>help</t>
@@ -157,13 +157,19 @@
     <t>well</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>safety</t>
   </si>
   <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -661,16 +667,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6470588235294118</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>0.8983050847457628</v>
@@ -740,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5277777777777778</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5135135135135135</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4232804232804233</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4117647058823529</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3779069767441861</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C10">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,219 +964,123 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L10">
+        <v>85</v>
+      </c>
+      <c r="M10">
+        <v>85</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.78125</v>
+      </c>
+      <c r="L11">
+        <v>125</v>
+      </c>
+      <c r="M11">
+        <v>125</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
         <v>28</v>
       </c>
-      <c r="K10">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L10">
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M10">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.3389830508474576</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>39</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="L11">
-        <v>66</v>
-      </c>
-      <c r="M11">
-        <v>66</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2684563758389262</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="K13">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L13">
+        <v>45</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L14">
         <v>109</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8</v>
-      </c>
-      <c r="L12">
-        <v>128</v>
-      </c>
-      <c r="M12">
-        <v>128</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>55</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L13">
-        <v>28</v>
-      </c>
-      <c r="M13">
-        <v>28</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.007087628865979381</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>0.12</v>
-      </c>
-      <c r="F14">
-        <v>0.88</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3082</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L14">
-        <v>28</v>
-      </c>
       <c r="M14">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.765625</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1234,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L17">
         <v>35</v>
       </c>
-      <c r="K17">
-        <v>0.765625</v>
-      </c>
-      <c r="L17">
-        <v>98</v>
-      </c>
       <c r="M17">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1260,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7605633802816901</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1286,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1312,12 +1222,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K20">
         <v>0.7209302325581395</v>
@@ -1343,16 +1253,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1364,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6323529411764706</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L22">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1390,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6190476190476191</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1416,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1442,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.576271186440678</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L25">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="M25">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1468,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5648535564853556</v>
+        <v>0.62</v>
       </c>
       <c r="L26">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5538461538461539</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5531914893617021</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5280898876404494</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5142857142857142</v>
+        <v>0.5397489539748954</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,33 +1508,189 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L31">
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32">
+        <v>50</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L34">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>43</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K31">
+      <c r="K35">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
         <v>0.3561643835616438</v>
       </c>
-      <c r="L31">
+      <c r="L36">
         <v>26</v>
       </c>
-      <c r="M31">
+      <c r="M36">
         <v>26</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L37">
+        <v>24</v>
+      </c>
+      <c r="M37">
+        <v>24</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
